--- a/Report/Project_Report.xlsx
+++ b/Report/Project_Report.xlsx
@@ -43,6 +43,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>project deadline</t>
     </r>
     <r>
@@ -852,13 +860,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,7 +1356,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{E4CEFDB8-4AAD-455B-8DCA-11BD3B30EA1C}">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{844E156D-D717-473D-BD46-3F49522DA8C5}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="totalRow" dxfId="20"/>
@@ -1653,7 +1658,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1661,7 +1666,7 @@
     <col min="1" max="1" width="22.2583333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.3" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="6.25833333333333" customWidth="1"/>
@@ -1670,413 +1675,413 @@
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="3:10">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>45301</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>45392</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G29" si="0">IF(F4&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="18"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30">
         <v>1000</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="26"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29">
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <v>0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>400</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>250</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37">
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36">
         <v>0</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="34"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="29">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="26"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="29">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="26"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="29">
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="29">
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="28">
         <v>0</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47">
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46">
         <v>0</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="29">
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="28">
         <v>0</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="29">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="28">
         <v>0</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="26"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="30">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="53"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="30">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="53"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2102,7 +2107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8eb1102b-01b9-47e6-89d4-31b95dfbcef0}</x14:id>
+          <x14:id>{0460befe-f229-4da0-b4be-578663bb2bd5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2127,7 +2132,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b2e9e7f-f538-4965-9303-29fa2628567f}</x14:id>
+          <x14:id>{28b76662-a0f4-4587-b2ee-9f59ba911c2b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2152,7 +2157,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77318227-50f5-477d-9bb0-271a7af20586}</x14:id>
+          <x14:id>{e1a11ecb-44ed-4d92-82a1-86206807e91c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2177,7 +2182,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45f409b3-1860-440e-b53f-7230ec5986fd}</x14:id>
+          <x14:id>{bebb4ab4-b6d4-4781-8ea1-39006da0d31e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2202,7 +2207,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8eb1102b-01b9-47e6-89d4-31b95dfbcef0}">
+          <x14:cfRule type="dataBar" id="{0460befe-f229-4da0-b4be-578663bb2bd5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2218,7 +2223,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{093aa38d-b5b2-45d8-ae93-1e666c6eefba}">
+          <x14:cfRule type="iconSet" priority="20" id="{b6c19670-5e50-4447-9f8c-24e4dc3181b6}">
             <x14:iconSet iconSet="3Symbols2" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2237,7 +2242,7 @@
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8b2e9e7f-f538-4965-9303-29fa2628567f}">
+          <x14:cfRule type="dataBar" id="{28b76662-a0f4-4587-b2ee-9f59ba911c2b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2253,7 +2258,7 @@
           <xm:sqref>F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{eab40e7a-bd1e-41a9-812b-6016423ba61b}">
+          <x14:cfRule type="iconSet" priority="15" id="{17be8803-1890-4ac0-9463-9cce2b9bdf7a}">
             <x14:iconSet iconSet="3Symbols2" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2272,7 +2277,7 @@
           <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77318227-50f5-477d-9bb0-271a7af20586}">
+          <x14:cfRule type="dataBar" id="{e1a11ecb-44ed-4d92-82a1-86206807e91c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2288,7 +2293,7 @@
           <xm:sqref>F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{85d0d745-f025-4c4d-91f6-b96fc70f9c1b}">
+          <x14:cfRule type="iconSet" priority="10" id="{e881663a-cff0-481c-8dfd-874c4a19be22}">
             <x14:iconSet iconSet="3Symbols2" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2307,7 +2312,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45f409b3-1860-440e-b53f-7230ec5986fd}">
+          <x14:cfRule type="dataBar" id="{bebb4ab4-b6d4-4781-8ea1-39006da0d31e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2323,7 +2328,7 @@
           <xm:sqref>F5:F8 F15:F18 F10:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{8af9d0ed-934c-4895-b440-85110a8f419f}">
+          <x14:cfRule type="iconSet" priority="25" id="{53aa1ccd-7999-465e-bd70-56c35542a44c}">
             <x14:iconSet iconSet="3Symbols2" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
